--- a/data/fcst_data/traffic_data_fcst_sample.xlsx
+++ b/data/fcst_data/traffic_data_fcst_sample.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbelmudez/Documents/Github/forecasting-wizard/data/fcst_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="440" windowWidth="21100" windowHeight="17320"/>
   </bookViews>
   <sheets>
-    <sheet name="raw_data_monthly" sheetId="9" r:id="rId1"/>
+    <sheet name="Metric - Forecast" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,31 +27,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Time Serie 1</t>
+  </si>
+  <si>
+    <t>Time Serie 2</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,30 +78,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -116,39 +130,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -227,156 +241,719 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B2">
+        <v>320364487.5</v>
+      </c>
+      <c r="C2">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B3">
+        <v>320364487.5</v>
+      </c>
+      <c r="C3">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B4">
+        <v>320364487.5</v>
+      </c>
+      <c r="C4">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B5">
+        <v>320364487.5</v>
+      </c>
+      <c r="C5">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B6">
+        <v>320364487.5</v>
+      </c>
+      <c r="C6">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B7">
+        <v>320364487.5</v>
+      </c>
+      <c r="C7">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B8">
+        <v>320364487.5</v>
+      </c>
+      <c r="C8">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B9">
+        <v>320364487.5</v>
+      </c>
+      <c r="C9">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B10">
+        <v>320364487.5</v>
+      </c>
+      <c r="C10">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B11">
+        <v>320364487.5</v>
+      </c>
+      <c r="C11">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B12">
+        <v>320364487.5</v>
+      </c>
+      <c r="C12">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B13">
+        <v>320364487.5</v>
+      </c>
+      <c r="C13">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B14">
+        <v>320364487.5</v>
+      </c>
+      <c r="C14">
+        <v>30914742.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B15">
+        <v>298499390</v>
+      </c>
+      <c r="C15">
+        <v>28517301.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B16">
+        <v>358144410</v>
+      </c>
+      <c r="C16">
+        <v>32745541.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B17">
+        <v>341918575</v>
+      </c>
+      <c r="C17">
+        <v>31295821.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B18">
+        <v>353694305</v>
+      </c>
+      <c r="C18">
+        <v>32596013.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B19">
+        <v>339123576.25</v>
+      </c>
+      <c r="C19">
+        <v>28134902.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B20">
+        <v>337583917.5</v>
+      </c>
+      <c r="C20">
+        <v>29693373.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B21">
+        <v>345824417.5</v>
+      </c>
+      <c r="C21">
+        <v>31690856.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B22">
+        <v>356030192.5</v>
+      </c>
+      <c r="C22">
+        <v>30311683.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B23">
+        <v>374729828.75</v>
+      </c>
+      <c r="C23">
+        <v>29548748.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B24">
+        <v>368439672.5</v>
+      </c>
+      <c r="C24">
+        <v>27888947.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B25">
+        <v>362635316.25</v>
+      </c>
+      <c r="C25">
+        <v>25987316.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B26">
+        <v>431999466.25</v>
+      </c>
+      <c r="C26">
+        <v>31482816.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B27">
+        <v>416838886.25</v>
+      </c>
+      <c r="C27">
+        <v>30590441.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B28">
+        <v>456737887.5</v>
+      </c>
+      <c r="C28">
+        <v>33587552.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B29">
+        <v>461768601.25</v>
+      </c>
+      <c r="C29">
+        <v>32075512.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B30">
+        <v>465768650</v>
+      </c>
+      <c r="C30">
+        <v>31055303.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B31">
+        <v>447364570</v>
+      </c>
+      <c r="C31">
+        <v>29106135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B32">
+        <v>443354425</v>
+      </c>
+      <c r="C32">
+        <v>29365697.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B33">
+        <v>464036743.75</v>
+      </c>
+      <c r="C33">
+        <v>30922416.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B34">
+        <v>469680701.25</v>
+      </c>
+      <c r="C34">
+        <v>28961783.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B35">
+        <v>517759197.5</v>
+      </c>
+      <c r="C35">
+        <v>31944471.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B36">
+        <v>502084746.25</v>
+      </c>
+      <c r="C36">
+        <v>30288051.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>42705</v>
+      </c>
+      <c r="B37">
+        <v>468959693.75</v>
+      </c>
+      <c r="C37">
+        <v>28654998.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B38">
+        <v>546139818.75</v>
+      </c>
+      <c r="C38">
+        <v>33248695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B39">
+        <v>518115192.5</v>
+      </c>
+      <c r="C39">
+        <v>32132387.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B40">
+        <v>559015027.59707868</v>
+      </c>
+      <c r="C40">
+        <v>32920560.27211538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B41">
+        <v>547532207.91481376</v>
+      </c>
+      <c r="C41">
+        <v>31453481.977190159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B42">
+        <v>572908907.99164891</v>
+      </c>
+      <c r="C42">
+        <v>33275041.56359436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B43">
+        <v>579745513.05570817</v>
+      </c>
+      <c r="C43">
+        <v>28849662.664511539</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B44">
+        <v>588584805.74839938</v>
+      </c>
+      <c r="C44">
+        <v>30644397.863545369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B45">
+        <v>587699131.18817353</v>
+      </c>
+      <c r="C45">
+        <v>32229019.626393549</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B46">
+        <v>601775802.72415423</v>
+      </c>
+      <c r="C46">
+        <v>32691384.378058091</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B47">
+        <v>589132542.2080766</v>
+      </c>
+      <c r="C47">
+        <v>29874499.781133059</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B48">
+        <v>602303937.5440526</v>
+      </c>
+      <c r="C48">
+        <v>30119665.006672241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B49">
+        <v>630219288.1996845</v>
+      </c>
+      <c r="C49">
+        <v>29731176.63680229</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>